--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:20:42+00:00</t>
+    <t>2022-05-23T17:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T17:22:42+00:00</t>
+    <t>2022-05-26T15:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -237,7 +237,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>VMPGroupModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>VMPGroupModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>VMPGroupModel.identifier</t>
@@ -251,9 +318,6 @@
   </si>
   <si>
     <t>VMPGroupModel.ingredient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -605,7 +669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -616,7 +680,7 @@
   <cols>
     <col min="1" max="1" width="37.11328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -641,7 +705,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.11328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -853,18 +917,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -875,7 +939,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -887,13 +951,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -944,13 +1008,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -959,20 +1023,20 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>73</v>
@@ -987,15 +1051,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1032,22 +1098,22 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1056,15 +1122,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1072,10 +1138,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1087,13 +1153,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1144,13 +1210,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1164,7 +1230,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1175,7 +1241,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1187,13 +1253,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1244,13 +1310,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1264,7 +1330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1287,13 +1353,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1344,7 +1410,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>79</v>
@@ -1364,7 +1430,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1375,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1387,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1444,21 +1510,221 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
+      <c r="G10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/VMPGroupModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/VMPGroupModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -679,41 +679,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.11328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.11328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,10 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -920,15 +916,15 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -939,25 +935,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1008,13 +1004,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1023,16 +1019,16 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1051,16 +1047,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1098,19 +1094,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1122,15 +1118,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1153,13 +1149,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1210,7 +1206,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1230,7 +1226,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1238,7 +1234,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>73</v>
@@ -1253,13 +1249,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1310,10 +1306,10 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1330,7 +1326,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1338,10 +1334,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1353,13 +1349,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1410,13 +1406,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1430,7 +1426,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1438,10 +1434,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1453,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1510,13 +1506,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1530,7 +1526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1538,10 +1534,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1553,13 +1549,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1610,13 +1606,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1630,7 +1626,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
@@ -1653,13 +1649,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1710,10 +1706,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
